--- a/Template_Inputs.xlsx
+++ b/Template_Inputs.xlsx
@@ -255,11 +255,11 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
@@ -28371,7 +28371,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="192.88"/>

--- a/Template_Inputs.xlsx
+++ b/Template_Inputs.xlsx
@@ -259,7 +259,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.88"/>
@@ -312,7 +312,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="40.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -28367,11 +28367,11 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="192.88"/>
